--- a/Aufgabenstellung, Zeitplan, Text,/Zeitplan_Masterarbeit.xlsx
+++ b/Aufgabenstellung, Zeitplan, Text,/Zeitplan_Masterarbeit.xlsx
@@ -996,13 +996,13 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.44"/>
@@ -1611,17 +1611,17 @@
       <c r="F19" s="40"/>
       <c r="G19" s="31"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="22"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="32"/>
+      <c r="S19" s="23"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
       <c r="V19" s="34"/>
@@ -1641,17 +1641,17 @@
       <c r="F20" s="40"/>
       <c r="G20" s="31"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="22"/>
       <c r="N20" s="23"/>
       <c r="O20" s="31"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="32"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
       <c r="V20" s="34"/>
